--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="5250"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCase_A7" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Case Steps" sheetId="4" r:id="rId3"/>
+    <sheet name="Test Case Steps" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:D16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="18">
   <si>
     <t>TCID</t>
   </si>
@@ -33,24 +33,6 @@
     <t>Results</t>
   </si>
   <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>ACCOUNT NAME</t>
-  </si>
-  <si>
-    <t>VALIDITY</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>TestCase_A1</t>
   </si>
   <si>
@@ -63,55 +45,28 @@
     <t>TC STEPS</t>
   </si>
   <si>
-    <t>amneetsingh72@gmail.com</t>
-  </si>
-  <si>
-    <t>amneetsingh100@gmail.com</t>
-  </si>
-  <si>
-    <t>amneet singh</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>To verify that Linkedin login is working correctly</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>transaction@2</t>
-  </si>
-  <si>
-    <t>TestCase_A7</t>
-  </si>
-  <si>
     <t>TestCase_A3</t>
   </si>
   <si>
     <t>TestCase_A4</t>
   </si>
   <si>
-    <t>N</t>
+    <t>To verify that new user is able to register TR new account and login with that</t>
+  </si>
+  <si>
+    <t>To verify that existing TR user is able to login successfully</t>
+  </si>
+  <si>
+    <t>To verify that existing LI user credentials are working fine</t>
+  </si>
+  <si>
+    <t>To verify that existing FB user credentials are working fine</t>
   </si>
   <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>To verify that new user is able to register TR new account and login with that</t>
-  </si>
-  <si>
-    <t>To verify that existing TR user is able to login successfully</t>
-  </si>
-  <si>
-    <t>To verify that existing LI user credentials are working fine</t>
-  </si>
-  <si>
-    <t>To verify that existing FB user credentials are working fine</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -122,20 +77,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -184,30 +132,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,74 +477,61 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -610,119 +539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" display="welcome@12"/>
-    <hyperlink ref="A4" r:id="rId3" display="amneetsinghasr@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B3" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -730,37 +547,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>14</v>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="196.5" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="252.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>TCID</t>
   </si>
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -4,23 +4,455 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="5250"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case Steps" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:D16"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>TestCase_A1</t>
+  </si>
+  <si>
+    <t>TestCase_A2</t>
+  </si>
+  <si>
+    <t>TC SCENARIO</t>
+  </si>
+  <si>
+    <t>TC STEPS</t>
+  </si>
+  <si>
+    <t>TestCase_A3</t>
+  </si>
+  <si>
+    <t>TestCase_A4</t>
+  </si>
+  <si>
+    <t>To verify that new user is able to register TR new account and login with that</t>
+  </si>
+  <si>
+    <t>To verify that existing TR user is able to login successfully</t>
+  </si>
+  <si>
+    <t>To verify that existing LI user credentials are working fine</t>
+  </si>
+  <si>
+    <t>To verify that existing FB user credentials are working fine</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42,66 +474,65 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" customFormat="1"/>
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -109,7 +540,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -128,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -11,11 +11,12 @@
     <sheet name="Test Case Steps" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>TCID</t>
   </si>
@@ -63,22 +64,12 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -457,10 +448,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -488,7 +479,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -499,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -513,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -527,7 +518,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -540,7 +531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -548,10 +539,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>TCID</t>
   </si>
@@ -64,12 +64,19 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -448,10 +455,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -479,7 +486,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -490,7 +497,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -504,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -518,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -539,10 +546,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>TCID</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>TCID</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -79,7 +73,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -458,10 +451,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -489,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -500,7 +493,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -514,7 +507,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -528,7 +521,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -549,10 +542,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>TCID</t>
   </si>
@@ -60,19 +60,26 @@
     <t>To verify that existing FB user credentials are working fine</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -451,10 +458,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -479,10 +486,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -493,10 +500,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -507,10 +514,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -521,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -542,10 +549,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -8,15 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Case Steps" sheetId="4" r:id="rId2"/>
+    <sheet name="TestCase_A5" sheetId="5" r:id="rId2"/>
+    <sheet name="TestCase_A6" sheetId="6" r:id="rId3"/>
+    <sheet name="Test Case Steps" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:D11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
@@ -63,16 +65,37 @@
     <t>Y</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>TestCase_A5</t>
+  </si>
+  <si>
+    <t>To verify FIRST NAME field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>VALIDITY</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CHARACTER LENGTH</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>SKIP</t>
+    <t>TestCase_A6</t>
+  </si>
+  <si>
+    <t>To verify LAST NAME field in new TR user registration page</t>
   </si>
 </sst>
 </file>
@@ -80,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +118,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -135,10 +165,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -151,8 +185,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -486,10 +523,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -500,10 +537,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -514,10 +551,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -528,10 +565,38 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -541,10 +606,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
+        <v>69</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <v>70</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
+        <v>71</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="amneetsingh72@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="amneetsinghasr@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="amneetsingh100@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7">
+        <v>69</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>70</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>71</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="amneetsingh72@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="amneetsinghasr@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="amneetsingh100@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -13,12 +13,11 @@
     <sheet name="Test Case Steps" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:D11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
@@ -102,7 +101,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -495,10 +493,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -579,7 +577,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -606,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
@@ -614,11 +612,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -632,7 +630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" s="7">
         <v>69</v>
       </c>
@@ -646,7 +644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:4">
       <c r="A3" s="7">
         <v>70</v>
       </c>
@@ -660,7 +658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4" s="7">
         <v>71</v>
       </c>
@@ -694,8 +692,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -766,7 +764,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -774,10 +772,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -732,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -535,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -563,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -577,7 +577,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -607,7 +607,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -638,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -652,7 +652,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>To verify LAST NAME field in new TR user registration page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -549,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -563,7 +566,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -591,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>To verify LAST NAME field in new TR user registration page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N </t>
   </si>
 </sst>
 </file>
@@ -491,7 +488,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -538,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -552,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -566,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -535,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -577,7 +577,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -563,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>TCID</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>SKIP</t>
@@ -488,7 +485,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -524,7 +521,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -535,10 +532,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -549,10 +546,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -563,38 +560,38 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +604,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -618,16 +615,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -635,13 +632,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -649,13 +646,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -663,13 +660,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +695,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -715,13 +712,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -729,13 +726,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -743,13 +740,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>TCID</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>SKIP</t>
@@ -488,7 +485,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -524,7 +521,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -538,7 +535,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -552,7 +549,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -566,35 +563,35 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +604,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -618,16 +615,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -635,13 +632,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -649,13 +646,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -663,13 +660,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +695,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -715,13 +712,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -729,13 +726,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -743,13 +740,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
@@ -92,12 +92,16 @@
   </si>
   <si>
     <t>To verify LAST NAME field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -490,10 +494,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -577,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -591,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -609,8 +613,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -689,8 +693,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -704,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -769,10 +773,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -10,14 +10,17 @@
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase_A5" sheetId="5" r:id="rId2"/>
     <sheet name="TestCase_A6" sheetId="6" r:id="rId3"/>
-    <sheet name="Test Case Steps" sheetId="4" r:id="rId4"/>
+    <sheet name="TestCase_A7" sheetId="7" r:id="rId4"/>
+    <sheet name="TestCase_A8" sheetId="8" r:id="rId5"/>
+    <sheet name="TestCase_A9" sheetId="9" r:id="rId6"/>
+    <sheet name="Test Case Steps" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -94,14 +97,58 @@
     <t>To verify LAST NAME field in new TR user registration page</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>TestCase_A7</t>
+  </si>
+  <si>
+    <t>To verify that user is not able to login using FB option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>amneetsingh50@gmail.com</t>
+  </si>
+  <si>
+    <t>Transaction@2</t>
+  </si>
+  <si>
+    <t>amneetsingh500@gmail.com</t>
+  </si>
+  <si>
+    <t>transaction@2</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>TestCase_A8</t>
+  </si>
+  <si>
+    <t>To verify that user is not able to login using LI option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>amneetsingh100@gmail.com</t>
+  </si>
+  <si>
+    <t>amneetsingh10@gmail.com</t>
+  </si>
+  <si>
+    <t>TestCase_A9</t>
+  </si>
+  <si>
+    <t>To verify that user is not able to login using TR option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>amneet.singh@thomsonreuters.com</t>
+  </si>
+  <si>
+    <t>amneetsingh@thomsonreuters.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -486,18 +533,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -581,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -595,7 +642,49 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -608,13 +697,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -628,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -642,7 +731,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -656,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -693,8 +782,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -708,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -722,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -736,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -765,6 +854,366 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -773,10 +1222,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -13,14 +13,17 @@
     <sheet name="TestCase_A7" sheetId="7" r:id="rId4"/>
     <sheet name="TestCase_A8" sheetId="8" r:id="rId5"/>
     <sheet name="TestCase_A9" sheetId="9" r:id="rId6"/>
-    <sheet name="Test Case Steps" sheetId="4" r:id="rId7"/>
+    <sheet name="TestCase_A10" sheetId="10" r:id="rId7"/>
+    <sheet name="TestCase_A11" sheetId="11" r:id="rId8"/>
+    <sheet name="TestCase_A12" sheetId="12" r:id="rId9"/>
+    <sheet name="Test Case Steps" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -55,15 +58,6 @@
     <t>To verify that new user is able to register TR new account and login with that</t>
   </si>
   <si>
-    <t>To verify that existing TR user is able to login successfully</t>
-  </si>
-  <si>
-    <t>To verify that existing LI user credentials are working fine</t>
-  </si>
-  <si>
-    <t>To verify that existing FB user credentials are working fine</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -143,12 +137,97 @@
   </si>
   <si>
     <t>amneetsingh@thomsonreuters.com</t>
+  </si>
+  <si>
+    <t>To verify EMAIL ADDRESS field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>TestCase_A10</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SUFFIX</t>
+  </si>
+  <si>
+    <t>@abc.com</t>
+  </si>
+  <si>
+    <t>ERROR TEXT</t>
+  </si>
+  <si>
+    <t>Please enter no more than 70 characters.</t>
+  </si>
+  <si>
+    <t>Please enter a valid Email Address.</t>
+  </si>
+  <si>
+    <t>TestCase_A11</t>
+  </si>
+  <si>
+    <t>To verify CONFIRM PASSWORD field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>TestCase_A12</t>
+  </si>
+  <si>
+    <t>To verify PASSWORD field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>STRENGTH</t>
+  </si>
+  <si>
+    <t>TICK MARKS</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Tra</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Transact</t>
+  </si>
+  <si>
+    <t>Transact2</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>TestCase_A13</t>
+  </si>
+  <si>
+    <t>To verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
+  </si>
+  <si>
+    <t>To verify that existing TR user is able to login and logout successfully</t>
+  </si>
+  <si>
+    <t>To verify that existing FB user is able to login and logout successfully</t>
+  </si>
+  <si>
+    <t>To verify that existing LI user is able to login and logout successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -218,7 +297,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -233,6 +312,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -240,11 +320,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -533,18 +608,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="103.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -569,10 +644,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -580,13 +655,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -594,13 +669,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -608,84 +683,187 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="48" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="196.5" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="252.75" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -697,27 +875,27 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -725,13 +903,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -739,13 +917,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -753,13 +931,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -777,27 +955,27 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -805,13 +983,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -819,13 +997,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -833,13 +1011,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -857,104 +1035,104 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -977,104 +1155,104 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1097,104 +1275,104 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1214,45 +1392,347 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="196.5" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="252.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
+        <v>61</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
+        <v>63</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="amneetsingh72@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="amneetsinghasr@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="amneetsingh100@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="Transaction@2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4" display="transaction@2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -227,7 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -611,15 +610,15 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="103.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -644,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -798,7 +797,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -812,7 +811,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -833,10 +832,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -880,8 +879,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -960,8 +959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1040,9 +1039,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1160,9 +1159,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1280,9 +1279,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1400,10 +1399,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1539,9 +1538,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1607,11 +1606,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -610,7 +610,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -657,7 +657,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -671,7 +671,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -685,7 +685,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -797,7 +797,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -610,7 +610,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -657,10 +657,10 @@
         <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -671,10 +671,10 @@
         <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -685,10 +685,10 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -698,8 +698,8 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -712,8 +712,8 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -726,8 +726,8 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>40</v>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -740,8 +740,8 @@
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>40</v>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -754,8 +754,8 @@
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -768,8 +768,8 @@
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>40</v>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -782,8 +782,8 @@
       <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -796,8 +796,8 @@
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -810,11 +810,11 @@
       <c r="B14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -13,14 +13,17 @@
     <sheet name="TestCase_A7" sheetId="7" r:id="rId4"/>
     <sheet name="TestCase_A8" sheetId="8" r:id="rId5"/>
     <sheet name="TestCase_A9" sheetId="9" r:id="rId6"/>
-    <sheet name="Test Case Steps" sheetId="4" r:id="rId7"/>
+    <sheet name="TestCase_A10" sheetId="10" r:id="rId7"/>
+    <sheet name="TestCase_A11" sheetId="11" r:id="rId8"/>
+    <sheet name="TestCase_A12" sheetId="12" r:id="rId9"/>
+    <sheet name="Test Case Steps" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -55,15 +58,6 @@
     <t>To verify that new user is able to register TR new account and login with that</t>
   </si>
   <si>
-    <t>To verify that existing TR user is able to login successfully</t>
-  </si>
-  <si>
-    <t>To verify that existing LI user credentials are working fine</t>
-  </si>
-  <si>
-    <t>To verify that existing FB user credentials are working fine</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -143,6 +137,90 @@
   </si>
   <si>
     <t>amneetsingh@thomsonreuters.com</t>
+  </si>
+  <si>
+    <t>To verify EMAIL ADDRESS field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>TestCase_A10</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SUFFIX</t>
+  </si>
+  <si>
+    <t>@abc.com</t>
+  </si>
+  <si>
+    <t>ERROR TEXT</t>
+  </si>
+  <si>
+    <t>Please enter no more than 70 characters.</t>
+  </si>
+  <si>
+    <t>Please enter a valid Email Address.</t>
+  </si>
+  <si>
+    <t>TestCase_A11</t>
+  </si>
+  <si>
+    <t>To verify CONFIRM PASSWORD field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>TestCase_A12</t>
+  </si>
+  <si>
+    <t>To verify PASSWORD field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>STRENGTH</t>
+  </si>
+  <si>
+    <t>TICK MARKS</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Tra</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Transact</t>
+  </si>
+  <si>
+    <t>Transact2</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>TestCase_A13</t>
+  </si>
+  <si>
+    <t>To verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
+  </si>
+  <si>
+    <t>To verify that existing TR user is able to login and logout successfully</t>
+  </si>
+  <si>
+    <t>To verify that existing FB user is able to login and logout successfully</t>
+  </si>
+  <si>
+    <t>To verify that existing LI user is able to login and logout successfully</t>
   </si>
 </sst>
 </file>
@@ -218,7 +296,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -233,6 +311,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -240,11 +319,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -533,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,10 +643,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -580,13 +654,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -594,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -608,84 +682,187 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="48" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="196.5" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="252.75" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -697,7 +874,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,16 +885,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -725,13 +902,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -739,13 +916,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -753,13 +930,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +954,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,16 +965,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -805,13 +982,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -819,13 +996,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -833,13 +1010,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +1034,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,92 +1046,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +1154,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,92 +1166,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1274,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1109,92 +1286,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1214,45 +1391,347 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="196.5" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="252.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
+        <v>61</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
+        <v>63</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="amneetsingh72@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="amneetsinghasr@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="amneetsingh100@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="Transaction@2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4" display="transaction@2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
   <si>
     <t>TCID</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>TestCase_A10</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>SUFFIX</t>
@@ -610,7 +607,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -654,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -668,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -682,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -777,10 +774,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -791,10 +788,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -805,10 +802,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -894,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -974,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1055,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1175,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1274,7 +1271,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1295,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1394,7 +1391,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1410,10 +1407,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -1422,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1430,14 +1427,14 @@
         <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -1448,14 +1445,14 @@
         <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -1466,16 +1463,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -1487,7 +1484,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
@@ -1504,7 +1501,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
@@ -1533,7 +1530,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1554,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1601,7 +1598,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1618,10 +1615,10 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -1630,15 +1627,15 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1650,15 +1647,15 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1667,7 +1664,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -1675,10 +1672,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1687,7 +1684,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -1695,10 +1692,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -1707,7 +1704,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -1715,10 +1712,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -1727,7 +1724,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="69">
   <si>
     <t>TCID</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>To verify that existing LI user is able to login and logout successfully</t>
+  </si>
+  <si>
+    <t>TestCase_A14</t>
+  </si>
+  <si>
+    <t>To verify that user is not able to submit new TR user registration form without filling in the required fields</t>
+  </si>
+  <si>
+    <t>TestCase_A15</t>
+  </si>
+  <si>
+    <t>To verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
   </si>
 </sst>
 </file>
@@ -604,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -813,6 +825,30 @@
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>To verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -666,7 +669,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -680,7 +683,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -694,7 +697,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -708,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -722,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -736,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -750,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -764,7 +767,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -778,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -792,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -806,7 +809,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -820,7 +823,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -823,7 +823,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -837,7 +837,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -849,7 +849,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2"/>
     </row>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -622,7 +622,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -655,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -669,7 +669,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -697,7 +697,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -767,7 +767,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -781,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -795,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -809,7 +809,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -823,7 +823,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -836,8 +836,8 @@
       <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>69</v>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -848,8 +848,8 @@
       <c r="B16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>69</v>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="2"/>
     </row>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -622,7 +622,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,7 +669,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -697,7 +697,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -767,7 +767,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -781,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -795,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -809,7 +809,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -837,7 +837,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -849,7 +849,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2"/>
     </row>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -622,7 +622,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,7 +669,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -697,7 +697,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -767,7 +767,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -781,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -795,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -809,7 +809,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -837,7 +837,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -849,7 +849,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2"/>
     </row>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -655,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -669,7 +669,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -697,7 +697,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -767,7 +767,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -781,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -795,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -809,7 +809,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -826,7 +826,7 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -837,9 +837,11 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
@@ -849,9 +851,11 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -930,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1010,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1091,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1189,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1331,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1458,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1590,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1666,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -655,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -669,7 +669,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -697,7 +697,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -767,7 +767,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -781,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -795,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -809,7 +809,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -837,7 +837,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -851,7 +851,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -934,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1314,7 +1314,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -622,7 +622,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -622,7 +622,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,7 +669,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -697,7 +697,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -767,7 +767,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -781,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -795,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -809,7 +809,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -837,7 +837,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -851,7 +851,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="69">
   <si>
     <t>TCID</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>To verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -622,7 +619,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,7 +666,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -683,7 +680,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -697,7 +694,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -711,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -725,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -739,7 +736,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -753,7 +750,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -767,7 +764,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -781,7 +778,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -795,7 +792,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -809,7 +806,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -823,7 +820,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -837,7 +834,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -851,7 +848,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>To verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -680,7 +683,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -694,7 +697,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -708,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -722,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -736,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -750,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -764,7 +767,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -778,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -792,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -806,7 +809,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -820,7 +823,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -834,7 +837,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -848,7 +851,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="72">
   <si>
     <t>TCID</t>
   </si>
@@ -233,12 +233,19 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>To verify that user is able to change his TR password by using FORGOT YOUR PASSWORD link and that he is able to login with his new password</t>
+  </si>
+  <si>
+    <t>TestCase_A16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -619,18 +626,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -669,7 +676,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -855,6 +862,20 @@
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -872,10 +893,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -919,8 +940,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -934,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -999,8 +1020,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1014,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1079,9 +1100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1095,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1199,9 +1220,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1215,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1319,9 +1340,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1335,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1439,10 +1460,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1462,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1578,9 +1599,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1594,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1646,11 +1667,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1670,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="71">
   <si>
     <t>TCID</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>To verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>To verify that user is able to change his TR password by using FORGOT YOUR PASSWORD link and that he is able to login with his new password</t>
@@ -245,7 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -629,15 +625,15 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -662,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -676,7 +672,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -690,7 +686,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -704,7 +700,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -718,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -732,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -746,7 +742,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -760,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -774,7 +770,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -788,7 +784,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -802,7 +798,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -816,7 +812,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -830,7 +826,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -844,7 +840,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -858,7 +854,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -866,12 +862,12 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -893,10 +889,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -940,8 +936,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1020,8 +1016,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1100,9 +1096,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1220,9 +1216,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1340,9 +1336,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1460,10 +1456,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1599,9 +1595,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1667,11 +1663,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -236,12 +236,22 @@
   </si>
   <si>
     <t>TestCase_A16</t>
+  </si>
+  <si>
+    <t>TestCase_A17</t>
+  </si>
+  <si>
+    <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -622,18 +632,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -658,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -672,7 +682,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -686,7 +696,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -700,7 +710,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -714,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -728,7 +738,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -742,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -756,7 +766,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -770,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -784,7 +794,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -798,7 +808,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -812,7 +822,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -826,7 +836,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -840,7 +850,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -854,7 +864,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -868,9 +878,23 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -889,10 +913,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -936,8 +960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1016,8 +1040,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1096,9 +1120,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1216,9 +1240,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1336,9 +1360,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1456,10 +1480,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1595,9 +1619,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1663,11 +1687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -892,10 +892,10 @@
         <v>72</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,7 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -635,15 +634,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -682,7 +681,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -913,10 +912,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -960,8 +959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1040,8 +1039,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1120,9 +1119,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1240,9 +1239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1360,9 +1359,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1480,10 +1479,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1619,9 +1618,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1687,11 +1686,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,6 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -639,10 +640,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -912,10 +913,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -959,8 +960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1039,8 +1040,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1119,9 +1120,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1239,9 +1240,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1359,9 +1360,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1479,10 +1480,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1618,9 +1619,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1686,11 +1687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -242,16 +242,12 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -635,15 +631,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -668,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -696,7 +692,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -710,7 +706,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -724,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -738,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -752,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -766,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -780,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -794,7 +790,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -808,7 +804,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -822,7 +818,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -836,7 +832,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -850,7 +846,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -864,7 +860,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -878,7 +874,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -891,8 +887,8 @@
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>73</v>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -913,10 +909,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -960,8 +956,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1040,8 +1036,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1120,9 +1116,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1240,9 +1236,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1360,9 +1356,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1480,10 +1476,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1619,9 +1615,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1687,11 +1683,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -248,6 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -636,10 +637,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -909,10 +910,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -956,8 +957,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1036,8 +1037,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1116,9 +1117,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1236,9 +1237,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1356,9 +1357,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1476,10 +1477,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1615,9 +1616,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1683,11 +1684,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="C3" sqref="C3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -668,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -679,7 +682,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -693,7 +696,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -707,7 +710,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -721,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -735,7 +738,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -749,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -763,7 +766,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -777,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -791,7 +794,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -805,7 +808,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -819,7 +822,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -833,7 +836,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -847,7 +850,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -861,7 +864,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -875,7 +878,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -889,7 +892,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -242,16 +242,12 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -635,15 +631,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -682,7 +678,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -696,7 +692,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -710,7 +706,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -724,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -738,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -752,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -766,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -780,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -794,7 +790,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -808,7 +804,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -822,7 +818,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -836,7 +832,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -850,7 +846,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -864,7 +860,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -878,7 +874,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -892,7 +888,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -913,10 +909,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -960,8 +956,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -975,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1040,8 +1036,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1055,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1120,9 +1116,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1136,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1240,9 +1236,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1256,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1360,9 +1356,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1376,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1480,10 +1476,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1503,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1619,9 +1615,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1635,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1687,11 +1683,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1711,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,7 +681,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -692,7 +695,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -706,7 +709,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -720,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -734,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -748,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -762,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -776,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -790,7 +793,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -804,7 +807,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -818,7 +821,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -832,7 +835,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -846,7 +849,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -860,7 +863,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -874,7 +877,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -888,7 +891,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -891,7 +891,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,7 +863,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -891,7 +891,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,6 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -634,15 +635,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -835,10 +836,10 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -863,7 +864,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -912,10 +913,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -959,8 +960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -974,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1039,8 +1040,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1054,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1119,9 +1120,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1135,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1239,9 +1240,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1255,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1359,9 +1360,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1375,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1479,10 +1480,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1502,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1618,9 +1619,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1634,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1686,11 +1687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1710,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,7 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -635,15 +634,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -668,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -682,7 +681,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -696,7 +695,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -710,7 +709,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -724,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -738,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -752,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -766,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -780,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -794,7 +793,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -808,7 +807,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -822,7 +821,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -836,7 +835,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -850,7 +849,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -864,7 +863,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -878,7 +877,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -892,7 +891,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -913,10 +912,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -960,8 +959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1040,8 +1039,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1120,9 +1119,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1240,9 +1239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1360,9 +1359,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1480,10 +1479,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1619,9 +1618,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1687,11 +1686,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -832,10 +835,10 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,6 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -639,10 +640,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -838,7 +839,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -912,10 +913,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -959,8 +960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1039,8 +1040,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1119,9 +1120,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1239,9 +1240,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1359,9 +1360,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1479,10 +1480,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1618,9 +1619,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1686,11 +1687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -696,7 +696,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -710,7 +710,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -738,7 +738,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -752,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -766,7 +766,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -780,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -794,7 +794,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -808,7 +808,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -822,7 +822,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -850,7 +850,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -864,7 +864,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -878,7 +878,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -892,7 +892,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,7 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -634,16 +633,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -685,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -913,10 +912,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -960,8 +959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -975,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1040,8 +1039,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1055,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1120,9 +1119,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1136,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1240,9 +1239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1256,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1360,9 +1359,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1376,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1480,10 +1479,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1503,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1619,9 +1618,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1635,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1687,11 +1686,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1711,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -634,7 +631,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -695,7 +692,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -709,7 +706,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -723,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -737,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -751,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -765,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -779,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -793,7 +790,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -807,7 +804,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -821,7 +818,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -835,7 +832,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -849,7 +846,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -863,7 +860,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -877,7 +874,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -891,7 +888,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -720,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -734,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -748,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -762,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -776,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -790,7 +793,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -804,7 +807,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -818,7 +821,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -832,7 +835,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -846,7 +849,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -860,7 +863,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,7 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -634,16 +633,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -685,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -696,7 +695,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -710,7 +709,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -878,7 +877,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -892,7 +891,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -913,10 +912,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -960,8 +959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -975,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1040,8 +1039,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1055,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1120,9 +1119,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1136,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1240,9 +1239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1256,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1360,9 +1359,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1376,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1480,10 +1479,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1503,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1619,9 +1618,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1635,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1687,11 +1686,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1711,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -634,7 +631,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -723,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -737,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -751,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -765,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -779,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -793,7 +790,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -807,7 +804,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -821,7 +818,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -835,7 +832,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -849,7 +846,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -863,7 +860,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,7 +681,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -692,7 +695,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -706,7 +709,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -720,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -734,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -748,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -762,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -776,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -790,7 +793,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -804,7 +807,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -818,7 +821,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -832,7 +835,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -846,7 +849,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -860,7 +863,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -874,7 +877,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -888,7 +891,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,6 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -634,15 +635,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -667,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -681,7 +682,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -709,10 +710,10 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -912,10 +913,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -959,8 +960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -974,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1039,8 +1040,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1054,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1119,9 +1120,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1135,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1239,9 +1240,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1255,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1359,9 +1360,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1375,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1479,10 +1480,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1502,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1618,9 +1619,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1634,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1686,11 +1687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1710,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,7 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -635,15 +634,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -682,7 +681,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -913,10 +912,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -960,8 +959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1040,8 +1039,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1120,9 +1119,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1240,9 +1239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1360,9 +1359,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1480,10 +1479,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1619,9 +1618,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1687,11 +1686,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -681,7 +681,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -692,7 +695,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -709,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -720,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -734,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -748,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -762,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -776,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -790,7 +793,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -804,7 +807,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -818,7 +821,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -832,7 +835,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -846,7 +849,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -860,7 +863,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -874,7 +877,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -888,7 +891,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -971,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1051,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1132,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1252,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1372,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1499,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1631,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1707,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -709,10 +709,10 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -974,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1135,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1375,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1710,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,6 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -634,15 +635,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -681,10 +682,10 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -709,10 +710,10 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -912,10 +913,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -959,8 +960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -974,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1039,8 +1040,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1054,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1119,9 +1120,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1135,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1239,9 +1240,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1255,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1359,9 +1360,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1375,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1479,10 +1480,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1502,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1618,9 +1619,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1634,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1686,11 +1687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1710,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -242,16 +242,12 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -635,15 +631,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -668,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -682,7 +678,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -696,7 +692,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -713,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -724,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -738,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -752,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -766,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -780,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -794,7 +790,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -808,7 +804,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -822,7 +818,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -836,7 +832,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -850,7 +846,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -864,7 +860,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -878,7 +874,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -892,7 +888,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -913,10 +909,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -960,8 +956,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1040,8 +1036,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1120,9 +1116,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1240,9 +1236,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1360,9 +1356,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1480,10 +1476,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1619,9 +1615,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1687,11 +1683,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,10 +667,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -678,7 +681,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -692,7 +695,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -706,7 +709,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -720,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -734,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -748,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -762,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -776,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -790,7 +793,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -804,7 +807,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -818,7 +821,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -846,7 +849,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -860,7 +863,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -874,7 +877,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -888,7 +891,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -634,7 +631,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,10 +664,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -681,7 +678,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -695,7 +692,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -709,7 +706,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -723,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -737,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -751,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -765,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -779,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -793,7 +790,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -807,7 +804,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -821,7 +818,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -849,7 +846,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -863,7 +860,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -877,7 +874,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -891,7 +888,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -630,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,7 +681,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -692,7 +695,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -706,7 +709,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -720,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -734,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -748,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -762,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -776,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -790,7 +793,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -804,7 +807,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -818,7 +821,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -832,7 +835,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -846,7 +849,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -860,7 +863,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -874,7 +877,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -888,7 +891,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,6 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -634,15 +635,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -667,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -695,10 +696,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -912,10 +913,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -959,8 +960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1039,8 +1040,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1119,9 +1120,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1239,9 +1240,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1359,9 +1360,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1479,10 +1480,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1618,9 +1619,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1686,11 +1687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -696,10 +696,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -752,10 +752,10 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1114,15 +1114,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1136,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1150,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1164,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1178,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1188,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1212,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -251,7 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -634,16 +633,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -752,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>59</v>
@@ -892,7 +891,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -913,10 +912,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -960,8 +959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1040,8 +1039,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1114,15 +1113,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1240,9 +1239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1360,9 +1359,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1480,10 +1479,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1619,9 +1618,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1687,11 +1686,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -633,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -681,7 +678,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -695,7 +692,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -709,7 +706,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -723,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -737,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -751,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>59</v>
@@ -765,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -779,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -793,7 +790,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -807,7 +804,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -821,7 +818,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -835,7 +832,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -849,7 +846,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -863,7 +860,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -877,7 +874,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1146,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1160,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1174,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1196,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1208,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -835,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1174,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1260,13 +1260,13 @@
         <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1316,19 +1316,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -248,6 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -636,10 +637,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -835,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -909,10 +910,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -956,8 +957,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1036,8 +1037,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1116,9 +1117,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1236,9 +1237,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1356,9 +1357,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1476,10 +1477,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1615,9 +1616,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1683,11 +1684,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="76">
   <si>
     <t>TCID</t>
   </si>
@@ -211,9 +211,6 @@
     <t>To verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
   </si>
   <si>
-    <t>To verify that existing TR user is able to login and logout successfully</t>
-  </si>
-  <si>
     <t>To verify that existing FB user is able to login and logout successfully</t>
   </si>
   <si>
@@ -242,6 +239,18 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TestCase_A18</t>
+  </si>
+  <si>
+    <t>Verify that LI CANCEL button is working correctly</t>
   </si>
 </sst>
 </file>
@@ -287,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -310,6 +319,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -318,7 +338,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -334,6 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -629,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -676,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -690,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -704,10 +725,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -721,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -735,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -749,7 +770,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -763,7 +784,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -777,7 +798,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -791,7 +812,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -805,7 +826,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -819,7 +840,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -833,7 +854,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -841,13 +862,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -855,13 +876,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -869,13 +890,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -883,15 +904,29 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -245,19 +245,12 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>TestCase_A18</t>
-  </si>
-  <si>
-    <t>Verify that LI CANCEL button is working correctly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -296,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -319,17 +312,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -338,7 +320,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -354,7 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -650,18 +631,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -913,20 +894,6 @@
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -945,10 +912,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -992,8 +959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1072,8 +1039,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1152,9 +1119,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1272,9 +1239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1392,9 +1359,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1512,10 +1479,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1651,9 +1618,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1719,11 +1686,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -835,7 +835,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -634,7 +631,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -681,7 +678,7 @@
         <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -695,7 +692,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -709,7 +706,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -723,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -737,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -751,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -765,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -779,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -793,7 +790,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -807,7 +804,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -821,7 +818,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -849,7 +846,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -863,7 +860,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -877,7 +874,7 @@
         <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -891,7 +888,7 @@
         <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -211,9 +211,6 @@
     <t>To verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
   </si>
   <si>
-    <t>To verify that existing TR user is able to login and logout successfully</t>
-  </si>
-  <si>
     <t>To verify that existing FB user is able to login and logout successfully</t>
   </si>
   <si>
@@ -242,13 +239,15 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -637,10 +636,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -676,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -690,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -704,7 +703,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -841,10 +840,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -855,10 +854,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -869,10 +868,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -883,10 +882,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -910,10 +909,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -957,8 +956,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1037,8 +1036,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1117,9 +1116,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1237,9 +1236,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1357,9 +1356,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1477,10 +1476,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1616,9 +1615,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1684,11 +1683,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -16,14 +16,15 @@
     <sheet name="TestCase_A10" sheetId="10" r:id="rId7"/>
     <sheet name="TestCase_A11" sheetId="11" r:id="rId8"/>
     <sheet name="TestCase_A12" sheetId="12" r:id="rId9"/>
-    <sheet name="Test Case Steps" sheetId="4" r:id="rId10"/>
+    <sheet name="TestCase_A19" sheetId="13" r:id="rId10"/>
+    <sheet name="Test Case Steps" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
   <si>
     <t>TCID</t>
   </si>
@@ -242,6 +243,50 @@
   </si>
   <si>
     <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TestCase_A18</t>
+  </si>
+  <si>
+    <t>Verify that Linkedin CANCEL button is working correctly</t>
+  </si>
+  <si>
+    <t>TestCase_A19</t>
+  </si>
+  <si>
+    <t>Verify that following special characters are not allowed in EMAIL ADDRESS field in new TR user registration page:
+1)        *
+2)        (
+3)        )
+4)        &amp;
+5)        !</t>
+  </si>
+  <si>
+    <t>Special character</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>TestCase_A20</t>
+  </si>
+  <si>
+    <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
   </si>
 </sst>
 </file>
@@ -317,7 +362,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -333,6 +378,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -628,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -692,7 +740,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -706,7 +754,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -720,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -734,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -748,7 +796,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -762,7 +810,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -776,7 +824,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -790,7 +838,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -804,7 +852,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -818,7 +866,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -832,7 +880,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -846,7 +894,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -860,7 +908,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -874,7 +922,7 @@
         <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -888,9 +936,51 @@
         <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="90">
+      <c r="A20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -900,6 +990,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="amneetsingh72@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="amneetsinghasr@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="amneetsingh100@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1471,7 +1651,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
   <si>
     <t>TCID</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>TestCase_A18</t>
@@ -679,7 +676,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -711,8 +708,8 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -725,7 +722,7 @@
       <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -739,8 +736,8 @@
       <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -753,8 +750,8 @@
       <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>73</v>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -767,8 +764,8 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -781,8 +778,8 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>73</v>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -795,8 +792,8 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>73</v>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -809,8 +806,8 @@
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>73</v>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -823,8 +820,8 @@
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>73</v>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -837,8 +834,8 @@
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>73</v>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -851,8 +848,8 @@
       <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>73</v>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -865,8 +862,8 @@
       <c r="B13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -879,8 +876,8 @@
       <c r="B14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>73</v>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -893,8 +890,8 @@
       <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -907,8 +904,8 @@
       <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -921,8 +918,8 @@
       <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -935,8 +932,8 @@
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>73</v>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -944,10 +941,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
@@ -958,10 +955,10 @@
     </row>
     <row r="20" spans="1:4" ht="90">
       <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>11</v>
@@ -972,10 +969,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
@@ -1005,7 +1002,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1016,7 +1013,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1049,7 +1046,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -16,14 +16,15 @@
     <sheet name="TestCase_A10" sheetId="10" r:id="rId7"/>
     <sheet name="TestCase_A11" sheetId="11" r:id="rId8"/>
     <sheet name="TestCase_A12" sheetId="12" r:id="rId9"/>
-    <sheet name="Test Case Steps" sheetId="4" r:id="rId10"/>
+    <sheet name="TestCase_A19" sheetId="13" r:id="rId10"/>
+    <sheet name="Test Case Steps" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
   <si>
     <t>TCID</t>
   </si>
@@ -211,9 +212,6 @@
     <t>To verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
   </si>
   <si>
-    <t>To verify that existing TR user is able to login and logout successfully</t>
-  </si>
-  <si>
     <t>To verify that existing FB user is able to login and logout successfully</t>
   </si>
   <si>
@@ -242,6 +240,50 @@
   </si>
   <si>
     <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
+  </si>
+  <si>
+    <t>TestCase_A18</t>
+  </si>
+  <si>
+    <t>Verify that Linkedin CANCEL button is working correctly</t>
+  </si>
+  <si>
+    <t>TestCase_A19</t>
+  </si>
+  <si>
+    <t>Verify that following special characters are not allowed in EMAIL ADDRESS field in new TR user registration page:
+1)        *
+2)        (
+3)        )
+4)        &amp;
+5)        !</t>
+  </si>
+  <si>
+    <t>Special character</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>TestCase_A20</t>
+  </si>
+  <si>
+    <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
   </si>
 </sst>
 </file>
@@ -317,7 +359,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -333,6 +375,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -628,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -663,7 +708,7 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -675,9 +720,9 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -689,9 +734,9 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -703,9 +748,9 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -719,7 +764,7 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -733,7 +778,7 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -747,7 +792,7 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -761,7 +806,7 @@
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -775,7 +820,7 @@
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -789,7 +834,7 @@
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -803,7 +848,7 @@
       <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -817,7 +862,7 @@
       <c r="B13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -831,7 +876,7 @@
       <c r="B14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -840,12 +885,12 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -854,12 +899,12 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -868,12 +913,12 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -882,15 +927,57 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="90">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -900,6 +987,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="amneetsingh72@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="amneetsinghasr@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="amneetsingh100@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1111,7 +1288,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,7 +1323,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1160,7 +1337,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1174,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1196,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1208,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1408,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1260,13 +1437,13 @@
         <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1274,13 +1451,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1288,13 +1465,13 @@
         <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1316,19 +1493,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1648,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
   <si>
     <t>TCID</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>TestCase_A1</t>
-  </si>
-  <si>
-    <t>TestCase_A2</t>
   </si>
   <si>
     <t>TC SCENARIO</t>
@@ -284,6 +281,12 @@
   </si>
   <si>
     <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TestCase_A2</t>
   </si>
 </sst>
 </file>
@@ -675,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,279 +709,279 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="90">
       <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1002,68 +1005,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1097,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">
@@ -1139,16 +1142,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1156,13 +1159,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1170,13 +1173,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1184,13 +1187,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1219,16 +1222,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1236,13 +1239,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1250,13 +1253,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1264,13 +1267,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1300,92 +1303,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1420,92 +1423,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1540,92 +1543,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1661,22 +1664,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1684,17 +1687,17 @@
         <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1702,17 +1705,17 @@
         <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1720,19 +1723,19 @@
         <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1741,16 +1744,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1758,17 +1761,17 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1799,44 +1802,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1869,122 +1872,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
   <si>
     <t>TCID</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>TC STEPS</t>
-  </si>
-  <si>
-    <t>TestCase_A3</t>
   </si>
   <si>
     <t>TestCase_A4</t>
@@ -283,10 +280,10 @@
     <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>TestCase_A2</t>
+  </si>
+  <si>
+    <t>TestCase_A3</t>
   </si>
 </sst>
 </file>
@@ -679,7 +676,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,279 +706,279 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="90">
       <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1005,68 +1002,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1142,16 +1139,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1159,13 +1156,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1173,13 +1170,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1187,13 +1184,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1222,16 +1219,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1239,13 +1236,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1253,13 +1250,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1267,13 +1264,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1303,92 +1300,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1423,92 +1420,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1543,92 +1540,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1664,22 +1661,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1687,17 +1684,17 @@
         <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1705,17 +1702,17 @@
         <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1723,19 +1720,19 @@
         <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1744,16 +1741,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1761,17 +1758,17 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1802,44 +1799,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1872,122 +1869,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="91">
   <si>
     <t>TCID</t>
   </si>
@@ -280,16 +280,35 @@
     <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>TestCase_A2</t>
   </si>
   <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-10</t>
+  </si>
+  <si>
+    <t>OPQA-10|OPQA-23</t>
+  </si>
+  <si>
     <t>TestCase_A3</t>
+  </si>
+  <si>
+    <t>OPQA-201</t>
+  </si>
+  <si>
+    <t>OPQA-189</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -673,311 +692,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="90">
+      <c r="D19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="90">
       <c r="A20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -996,8 +1077,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1086,10 +1167,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1133,8 +1214,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1213,8 +1294,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1293,9 +1374,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1413,9 +1494,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1533,9 +1614,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1653,10 +1734,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1792,9 +1873,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1860,11 +1941,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="91">
   <si>
     <t>TCID</t>
   </si>
@@ -41,16 +41,10 @@
     <t>TestCase_A1</t>
   </si>
   <si>
-    <t>TestCase_A2</t>
-  </si>
-  <si>
     <t>TC SCENARIO</t>
   </si>
   <si>
     <t>TC STEPS</t>
-  </si>
-  <si>
-    <t>TestCase_A3</t>
   </si>
   <si>
     <t>TestCase_A4</t>
@@ -285,11 +279,36 @@
   <si>
     <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TestCase_A2</t>
+  </si>
+  <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-10</t>
+  </si>
+  <si>
+    <t>OPQA-10|OPQA-23</t>
+  </si>
+  <si>
+    <t>TestCase_A3</t>
+  </si>
+  <si>
+    <t>OPQA-201</t>
+  </si>
+  <si>
+    <t>OPQA-189</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -673,312 +692,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="D19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="90">
+      <c r="A20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="90">
-      <c r="A20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -996,74 +1077,74 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1086,10 +1167,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1097,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">
@@ -1133,22 +1214,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1156,13 +1237,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1170,13 +1251,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1184,13 +1265,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1213,22 +1294,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1236,13 +1317,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1250,13 +1331,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1264,13 +1345,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1293,99 +1374,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1413,99 +1494,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1533,99 +1614,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1653,30 +1734,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1684,17 +1765,17 @@
         <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1702,17 +1783,17 @@
         <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1720,19 +1801,19 @@
         <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1741,16 +1822,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1758,17 +1839,17 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1792,51 +1873,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1860,131 +1941,131 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>
@@ -41,18 +41,21 @@
     <t>TestCase_A1</t>
   </si>
   <si>
+    <t>TestCase_A2</t>
+  </si>
+  <si>
     <t>TC SCENARIO</t>
   </si>
   <si>
     <t>TC STEPS</t>
   </si>
   <si>
+    <t>TestCase_A3</t>
+  </si>
+  <si>
     <t>TestCase_A4</t>
   </si>
   <si>
-    <t>To verify that new user is able to register TR new account and login with that</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
     <t>TestCase_A5</t>
   </si>
   <si>
-    <t>To verify FIRST NAME field in new TR user registration page</t>
-  </si>
-  <si>
     <t>VALIDITY</t>
   </si>
   <si>
@@ -83,15 +83,9 @@
     <t>TestCase_A6</t>
   </si>
   <si>
-    <t>To verify LAST NAME field in new TR user registration page</t>
-  </si>
-  <si>
     <t>TestCase_A7</t>
   </si>
   <si>
-    <t>To verify that user is not able to login using FB option for different negative combinations of username/password</t>
-  </si>
-  <si>
     <t>PASSWORD</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>TestCase_A8</t>
   </si>
   <si>
-    <t>To verify that user is not able to login using LI option for different negative combinations of username/password</t>
-  </si>
-  <si>
     <t>amneetsingh100@gmail.com</t>
   </si>
   <si>
@@ -125,18 +116,12 @@
     <t>TestCase_A9</t>
   </si>
   <si>
-    <t>To verify that user is not able to login using TR option for different negative combinations of username/password</t>
-  </si>
-  <si>
     <t>amneet.singh@thomsonreuters.com</t>
   </si>
   <si>
     <t>amneetsingh@thomsonreuters.com</t>
   </si>
   <si>
-    <t>To verify EMAIL ADDRESS field in new TR user registration page</t>
-  </si>
-  <si>
     <t>TestCase_A10</t>
   </si>
   <si>
@@ -158,15 +143,9 @@
     <t>TestCase_A11</t>
   </si>
   <si>
-    <t>To verify CONFIRM PASSWORD field in new TR user registration page</t>
-  </si>
-  <si>
     <t>TestCase_A12</t>
   </si>
   <si>
-    <t>To verify PASSWORD field in new TR user registration page</t>
-  </si>
-  <si>
     <t>STRENGTH</t>
   </si>
   <si>
@@ -203,37 +182,16 @@
     <t>TestCase_A13</t>
   </si>
   <si>
-    <t>To verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
-  </si>
-  <si>
-    <t>To verify that existing FB user is able to login and logout successfully</t>
-  </si>
-  <si>
-    <t>To verify that existing LI user is able to login and logout successfully</t>
-  </si>
-  <si>
     <t>TestCase_A14</t>
   </si>
   <si>
-    <t>To verify that user is not able to submit new TR user registration form without filling in the required fields</t>
-  </si>
-  <si>
     <t>TestCase_A15</t>
   </si>
   <si>
-    <t>To verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
-  </si>
-  <si>
-    <t>To verify that user is able to change his TR password by using FORGOT YOUR PASSWORD link and that he is able to login with his new password</t>
-  </si>
-  <si>
     <t>TestCase_A16</t>
   </si>
   <si>
     <t>TestCase_A17</t>
-  </si>
-  <si>
-    <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
   </si>
   <si>
     <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
@@ -280,35 +238,121 @@
     <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TestCase_A2</t>
-  </si>
-  <si>
     <t>Jira id</t>
   </si>
   <si>
-    <t>OPQA-10</t>
-  </si>
-  <si>
-    <t>OPQA-10|OPQA-23</t>
-  </si>
-  <si>
-    <t>TestCase_A3</t>
-  </si>
-  <si>
-    <t>OPQA-201</t>
-  </si>
-  <si>
-    <t>OPQA-189</t>
+    <t>Verify that user is able to register for a new TR account and is able to login with that</t>
+  </si>
+  <si>
+    <t>Verify that user is able to login with existing LI id and logout successfully</t>
+  </si>
+  <si>
+    <t>Verify that existing FB user is able to login and logout successfully</t>
+  </si>
+  <si>
+    <t>Verify FIRST NAME field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify LAST NAME field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login using FB option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login using LI option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login using TR option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>Verify EMAIL ADDRESS field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify CONFIRM PASSWORD field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify PASSWORD field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to submit new TR user registration form without filling in the required fields</t>
+  </si>
+  <si>
+    <t>Verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
+  </si>
+  <si>
+    <t>Verify that user is able to change his TR password by using FORGOT YOUR PASSWORD link and that he is able to login with his new password</t>
+  </si>
+  <si>
+    <t>Verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>OPQA-205</t>
+  </si>
+  <si>
+    <t>OPQA-335</t>
+  </si>
+  <si>
+    <t>OPQA-346</t>
+  </si>
+  <si>
+    <t>OPQA-350</t>
+  </si>
+  <si>
+    <t>OPQA-391</t>
+  </si>
+  <si>
+    <t>OPQA-393</t>
+  </si>
+  <si>
+    <t>OPQA-353</t>
+  </si>
+  <si>
+    <t>OPQA-355</t>
+  </si>
+  <si>
+    <t>OPQA-356</t>
+  </si>
+  <si>
+    <t>OPQA-357</t>
+  </si>
+  <si>
+    <t>OPQA-395</t>
+  </si>
+  <si>
+    <t>OPQA-394</t>
+  </si>
+  <si>
+    <t>OPQA-397</t>
+  </si>
+  <si>
+    <t>OPQA-400</t>
+  </si>
+  <si>
+    <t>OPQA-523</t>
+  </si>
+  <si>
+    <t>OPQA-535</t>
+  </si>
+  <si>
+    <t>OPQA-538</t>
+  </si>
+  <si>
+    <t>OPQA-724</t>
+  </si>
+  <si>
+    <t>OPQA-725</t>
+  </si>
+  <si>
+    <t>OPQA-551</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -333,7 +377,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +428,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -395,6 +445,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -694,15 +747,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -710,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -729,45 +783,45 @@
       <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
+      <c r="C4" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -775,291 +829,291 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
+      <c r="B7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="90">
       <c r="A20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1077,13 +1131,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1094,10 +1148,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1105,10 +1159,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1116,10 +1170,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1127,10 +1181,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1138,10 +1192,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -1167,10 +1221,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1178,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">
@@ -1214,8 +1268,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1240,10 +1294,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1254,10 +1308,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1268,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1294,8 +1348,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1320,10 +1374,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1334,10 +1388,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1348,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1374,17 +1428,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1395,13 +1449,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -1409,13 +1463,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1423,13 +1477,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1439,7 +1493,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1447,11 +1501,11 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -1460,10 +1514,10 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1494,17 +1548,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1515,13 +1569,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -1529,13 +1583,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1543,13 +1597,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1559,7 +1613,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1567,11 +1621,11 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -1580,10 +1634,10 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1614,17 +1668,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1635,13 +1689,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -1649,13 +1703,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1663,13 +1717,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1679,7 +1733,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1687,11 +1741,11 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -1700,10 +1754,10 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1734,10 +1788,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1745,10 +1799,10 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1765,17 +1819,17 @@
         <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1783,17 +1837,17 @@
         <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1801,19 +1855,19 @@
         <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1822,13 +1876,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
@@ -1839,14 +1893,14 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -1873,14 +1927,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -1894,13 +1948,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -1908,13 +1962,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1941,22 +1995,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1970,10 +2024,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1982,18 +2036,18 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -2002,18 +2056,18 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -2022,18 +2076,18 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -2042,18 +2096,18 @@
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -2062,10 +2116,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>
@@ -353,6 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -753,10 +754,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -790,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -807,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -824,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -841,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -858,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -875,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -892,7 +893,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -909,7 +910,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -926,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -943,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -960,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -977,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -994,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1011,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1028,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1045,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1062,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1079,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="90">
@@ -1096,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1113,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1131,8 +1132,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1221,10 +1222,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1268,8 +1269,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1348,8 +1349,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1428,9 +1429,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1548,9 +1549,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1668,9 +1669,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1788,10 +1789,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1927,9 +1928,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1995,11 +1996,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>
@@ -353,6 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -747,16 +748,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -994,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1131,8 +1132,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1221,10 +1222,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1268,8 +1269,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1348,8 +1349,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1428,9 +1429,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1548,9 +1549,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1668,9 +1669,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1788,10 +1789,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1927,9 +1928,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1995,11 +1996,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -16,14 +16,15 @@
     <sheet name="TestCase_A10" sheetId="10" r:id="rId7"/>
     <sheet name="TestCase_A11" sheetId="11" r:id="rId8"/>
     <sheet name="TestCase_A12" sheetId="12" r:id="rId9"/>
-    <sheet name="Test Case Steps" sheetId="4" r:id="rId10"/>
+    <sheet name="TestCase_A19" sheetId="13" r:id="rId10"/>
+    <sheet name="Test Case Steps" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>
@@ -55,9 +56,6 @@
     <t>TestCase_A4</t>
   </si>
   <si>
-    <t>To verify that new user is able to register TR new account and login with that</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -67,9 +65,6 @@
     <t>TestCase_A5</t>
   </si>
   <si>
-    <t>To verify FIRST NAME field in new TR user registration page</t>
-  </si>
-  <si>
     <t>VALIDITY</t>
   </si>
   <si>
@@ -88,15 +83,9 @@
     <t>TestCase_A6</t>
   </si>
   <si>
-    <t>To verify LAST NAME field in new TR user registration page</t>
-  </si>
-  <si>
     <t>TestCase_A7</t>
   </si>
   <si>
-    <t>To verify that user is not able to login using FB option for different negative combinations of username/password</t>
-  </si>
-  <si>
     <t>PASSWORD</t>
   </si>
   <si>
@@ -118,9 +107,6 @@
     <t>TestCase_A8</t>
   </si>
   <si>
-    <t>To verify that user is not able to login using LI option for different negative combinations of username/password</t>
-  </si>
-  <si>
     <t>amneetsingh100@gmail.com</t>
   </si>
   <si>
@@ -130,18 +116,12 @@
     <t>TestCase_A9</t>
   </si>
   <si>
-    <t>To verify that user is not able to login using TR option for different negative combinations of username/password</t>
-  </si>
-  <si>
     <t>amneet.singh@thomsonreuters.com</t>
   </si>
   <si>
     <t>amneetsingh@thomsonreuters.com</t>
   </si>
   <si>
-    <t>To verify EMAIL ADDRESS field in new TR user registration page</t>
-  </si>
-  <si>
     <t>TestCase_A10</t>
   </si>
   <si>
@@ -163,15 +143,9 @@
     <t>TestCase_A11</t>
   </si>
   <si>
-    <t>To verify CONFIRM PASSWORD field in new TR user registration page</t>
-  </si>
-  <si>
     <t>TestCase_A12</t>
   </si>
   <si>
-    <t>To verify PASSWORD field in new TR user registration page</t>
-  </si>
-  <si>
     <t>STRENGTH</t>
   </si>
   <si>
@@ -208,46 +182,178 @@
     <t>TestCase_A13</t>
   </si>
   <si>
-    <t>To verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
-  </si>
-  <si>
-    <t>To verify that existing FB user is able to login and logout successfully</t>
-  </si>
-  <si>
-    <t>To verify that existing LI user is able to login and logout successfully</t>
-  </si>
-  <si>
     <t>TestCase_A14</t>
   </si>
   <si>
-    <t>To verify that user is not able to submit new TR user registration form without filling in the required fields</t>
-  </si>
-  <si>
     <t>TestCase_A15</t>
   </si>
   <si>
-    <t>To verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
-  </si>
-  <si>
-    <t>To verify that user is able to change his TR password by using FORGOT YOUR PASSWORD link and that he is able to login with his new password</t>
-  </si>
-  <si>
     <t>TestCase_A16</t>
   </si>
   <si>
     <t>TestCase_A17</t>
   </si>
   <si>
-    <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
-  </si>
-  <si>
     <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
+  </si>
+  <si>
+    <t>TestCase_A18</t>
+  </si>
+  <si>
+    <t>Verify that Linkedin CANCEL button is working correctly</t>
+  </si>
+  <si>
+    <t>TestCase_A19</t>
+  </si>
+  <si>
+    <t>Verify that following special characters are not allowed in EMAIL ADDRESS field in new TR user registration page:
+1)        *
+2)        (
+3)        )
+4)        &amp;
+5)        !</t>
+  </si>
+  <si>
+    <t>Special character</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>TestCase_A20</t>
+  </si>
+  <si>
+    <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
+  </si>
+  <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>Verify that user is able to register for a new TR account and is able to login with that</t>
+  </si>
+  <si>
+    <t>Verify that user is able to login with existing LI id and logout successfully</t>
+  </si>
+  <si>
+    <t>Verify that existing FB user is able to login and logout successfully</t>
+  </si>
+  <si>
+    <t>Verify FIRST NAME field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify LAST NAME field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login using FB option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login using LI option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login using TR option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>Verify EMAIL ADDRESS field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify CONFIRM PASSWORD field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify PASSWORD field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to submit new TR user registration form without filling in the required fields</t>
+  </si>
+  <si>
+    <t>Verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
+  </si>
+  <si>
+    <t>Verify that user is able to change his TR password by using FORGOT YOUR PASSWORD link and that he is able to login with his new password</t>
+  </si>
+  <si>
+    <t>Verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>OPQA-205</t>
+  </si>
+  <si>
+    <t>OPQA-335</t>
+  </si>
+  <si>
+    <t>OPQA-346</t>
+  </si>
+  <si>
+    <t>OPQA-350</t>
+  </si>
+  <si>
+    <t>OPQA-391</t>
+  </si>
+  <si>
+    <t>OPQA-393</t>
+  </si>
+  <si>
+    <t>OPQA-353</t>
+  </si>
+  <si>
+    <t>OPQA-355</t>
+  </si>
+  <si>
+    <t>OPQA-356</t>
+  </si>
+  <si>
+    <t>OPQA-357</t>
+  </si>
+  <si>
+    <t>OPQA-395</t>
+  </si>
+  <si>
+    <t>OPQA-394</t>
+  </si>
+  <si>
+    <t>OPQA-397</t>
+  </si>
+  <si>
+    <t>OPQA-400</t>
+  </si>
+  <si>
+    <t>OPQA-523</t>
+  </si>
+  <si>
+    <t>OPQA-535</t>
+  </si>
+  <si>
+    <t>OPQA-538</t>
+  </si>
+  <si>
+    <t>OPQA-724</t>
+  </si>
+  <si>
+    <t>OPQA-725</t>
+  </si>
+  <si>
+    <t>OPQA-551</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -272,7 +378,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +429,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -333,6 +445,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -628,270 +746,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="90">
+      <c r="A20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -900,6 +1123,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="amneetsingh72@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="amneetsinghasr@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="amneetsingh100@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -909,10 +1222,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -956,22 +1269,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -979,13 +1292,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -993,13 +1306,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1007,13 +1320,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1036,22 +1349,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1059,13 +1372,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1073,13 +1386,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1087,13 +1400,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1116,99 +1429,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1236,99 +1549,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1356,99 +1669,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1471,35 +1784,35 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1507,17 +1820,17 @@
         <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1525,17 +1838,17 @@
         <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1543,19 +1856,19 @@
         <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1564,16 +1877,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1581,17 +1894,17 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1615,51 +1928,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1683,131 +1996,131 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>
@@ -41,18 +41,21 @@
     <t>TestCase_A1</t>
   </si>
   <si>
+    <t>TestCase_A2</t>
+  </si>
+  <si>
     <t>TC SCENARIO</t>
   </si>
   <si>
     <t>TC STEPS</t>
   </si>
   <si>
+    <t>TestCase_A3</t>
+  </si>
+  <si>
     <t>TestCase_A4</t>
   </si>
   <si>
-    <t>To verify that new user is able to register TR new account and login with that</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
     <t>TestCase_A5</t>
   </si>
   <si>
-    <t>To verify FIRST NAME field in new TR user registration page</t>
-  </si>
-  <si>
     <t>VALIDITY</t>
   </si>
   <si>
@@ -83,15 +83,9 @@
     <t>TestCase_A6</t>
   </si>
   <si>
-    <t>To verify LAST NAME field in new TR user registration page</t>
-  </si>
-  <si>
     <t>TestCase_A7</t>
   </si>
   <si>
-    <t>To verify that user is not able to login using FB option for different negative combinations of username/password</t>
-  </si>
-  <si>
     <t>PASSWORD</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>TestCase_A8</t>
   </si>
   <si>
-    <t>To verify that user is not able to login using LI option for different negative combinations of username/password</t>
-  </si>
-  <si>
     <t>amneetsingh100@gmail.com</t>
   </si>
   <si>
@@ -125,18 +116,12 @@
     <t>TestCase_A9</t>
   </si>
   <si>
-    <t>To verify that user is not able to login using TR option for different negative combinations of username/password</t>
-  </si>
-  <si>
     <t>amneet.singh@thomsonreuters.com</t>
   </si>
   <si>
     <t>amneetsingh@thomsonreuters.com</t>
   </si>
   <si>
-    <t>To verify EMAIL ADDRESS field in new TR user registration page</t>
-  </si>
-  <si>
     <t>TestCase_A10</t>
   </si>
   <si>
@@ -158,15 +143,9 @@
     <t>TestCase_A11</t>
   </si>
   <si>
-    <t>To verify CONFIRM PASSWORD field in new TR user registration page</t>
-  </si>
-  <si>
     <t>TestCase_A12</t>
   </si>
   <si>
-    <t>To verify PASSWORD field in new TR user registration page</t>
-  </si>
-  <si>
     <t>STRENGTH</t>
   </si>
   <si>
@@ -203,37 +182,16 @@
     <t>TestCase_A13</t>
   </si>
   <si>
-    <t>To verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
-  </si>
-  <si>
-    <t>To verify that existing FB user is able to login and logout successfully</t>
-  </si>
-  <si>
-    <t>To verify that existing LI user is able to login and logout successfully</t>
-  </si>
-  <si>
     <t>TestCase_A14</t>
   </si>
   <si>
-    <t>To verify that user is not able to submit new TR user registration form without filling in the required fields</t>
-  </si>
-  <si>
     <t>TestCase_A15</t>
   </si>
   <si>
-    <t>To verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
-  </si>
-  <si>
-    <t>To verify that user is able to change his TR password by using FORGOT YOUR PASSWORD link and that he is able to login with his new password</t>
-  </si>
-  <si>
     <t>TestCase_A16</t>
   </si>
   <si>
     <t>TestCase_A17</t>
-  </si>
-  <si>
-    <t>To verify that name of a user is truncated using ellipse if the name is very long</t>
   </si>
   <si>
     <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
@@ -280,28 +238,115 @@
     <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TestCase_A2</t>
-  </si>
-  <si>
     <t>Jira id</t>
   </si>
   <si>
-    <t>OPQA-10</t>
-  </si>
-  <si>
-    <t>OPQA-10|OPQA-23</t>
-  </si>
-  <si>
-    <t>TestCase_A3</t>
-  </si>
-  <si>
-    <t>OPQA-201</t>
-  </si>
-  <si>
-    <t>OPQA-189</t>
+    <t>Verify that user is able to register for a new TR account and is able to login with that</t>
+  </si>
+  <si>
+    <t>Verify that user is able to login with existing LI id and logout successfully</t>
+  </si>
+  <si>
+    <t>Verify that existing FB user is able to login and logout successfully</t>
+  </si>
+  <si>
+    <t>Verify FIRST NAME field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify LAST NAME field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login using FB option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login using LI option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to login using TR option for different negative combinations of username/password</t>
+  </si>
+  <si>
+    <t>Verify EMAIL ADDRESS field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify CONFIRM PASSWORD field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify PASSWORD field in new TR user registration page</t>
+  </si>
+  <si>
+    <t>Verify that TERMS OF USE and PRIVACY STATEMENT links are working correctly</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to submit new TR user registration form without filling in the required fields</t>
+  </si>
+  <si>
+    <t>Verify that app doesn't allow the user to create a new account with an email id that has already been used</t>
+  </si>
+  <si>
+    <t>Verify that user is able to change his TR password by using FORGOT YOUR PASSWORD link and that he is able to login with his new password</t>
+  </si>
+  <si>
+    <t>Verify that name of a user is truncated using ellipse if the name is very long</t>
+  </si>
+  <si>
+    <t>OPQA-205</t>
+  </si>
+  <si>
+    <t>OPQA-335</t>
+  </si>
+  <si>
+    <t>OPQA-346</t>
+  </si>
+  <si>
+    <t>OPQA-350</t>
+  </si>
+  <si>
+    <t>OPQA-391</t>
+  </si>
+  <si>
+    <t>OPQA-393</t>
+  </si>
+  <si>
+    <t>OPQA-353</t>
+  </si>
+  <si>
+    <t>OPQA-355</t>
+  </si>
+  <si>
+    <t>OPQA-356</t>
+  </si>
+  <si>
+    <t>OPQA-357</t>
+  </si>
+  <si>
+    <t>OPQA-395</t>
+  </si>
+  <si>
+    <t>OPQA-394</t>
+  </si>
+  <si>
+    <t>OPQA-397</t>
+  </si>
+  <si>
+    <t>OPQA-400</t>
+  </si>
+  <si>
+    <t>OPQA-523</t>
+  </si>
+  <si>
+    <t>OPQA-535</t>
+  </si>
+  <si>
+    <t>OPQA-538</t>
+  </si>
+  <si>
+    <t>OPQA-724</t>
+  </si>
+  <si>
+    <t>OPQA-725</t>
+  </si>
+  <si>
+    <t>OPQA-551</t>
   </si>
 </sst>
 </file>
@@ -333,7 +378,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +429,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -395,6 +446,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -694,12 +748,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
@@ -710,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -729,337 +784,337 @@
       <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
+      <c r="C4" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
+      <c r="B7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="90">
       <c r="A20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1138,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1094,10 +1149,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1105,10 +1160,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1116,10 +1171,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1127,10 +1182,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1138,10 +1193,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -1178,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">
@@ -1240,10 +1295,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1254,10 +1309,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1268,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1320,10 +1375,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1334,10 +1389,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1348,7 +1403,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1381,10 +1436,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1395,13 +1450,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -1409,13 +1464,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1423,13 +1478,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1439,7 +1494,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1447,11 +1502,11 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -1460,10 +1515,10 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1501,10 +1556,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1515,13 +1570,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -1529,13 +1584,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1543,13 +1598,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1559,7 +1614,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1567,11 +1622,11 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -1580,10 +1635,10 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1621,10 +1676,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1635,13 +1690,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -1649,13 +1704,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1663,13 +1718,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1679,7 +1734,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1687,11 +1742,11 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -1700,10 +1755,10 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1745,10 +1800,10 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1765,17 +1820,17 @@
         <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1783,17 +1838,17 @@
         <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1801,19 +1856,19 @@
         <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1822,13 +1877,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
@@ -1839,14 +1894,14 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -1880,7 +1935,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -1894,13 +1949,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -1908,13 +1963,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1950,13 +2005,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1970,10 +2025,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1982,18 +2037,18 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -2002,18 +2057,18 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -2022,18 +2077,18 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -2042,18 +2097,18 @@
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -2062,10 +2117,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="116">
   <si>
     <t>TCID</t>
   </si>
@@ -348,12 +348,41 @@
   <si>
     <t>OPQA-551</t>
   </si>
+  <si>
+    <t>TestCase_A21</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Verify View additional email preferences link is working</t>
+  </si>
+  <si>
+    <t>TestCase_A22</t>
+  </si>
+  <si>
+    <t>TestCase_A23</t>
+  </si>
+  <si>
+    <t>Verify change password link in the account page is working correctly.</t>
+  </si>
+  <si>
+    <t>Verify that the  checkbox  is present and can be modified for "Receive email notifications for likes,comments and other activity" is working correctly.</t>
+  </si>
+  <si>
+    <t>OPQA-854,OPQA-853</t>
+  </si>
+  <si>
+    <t>OPQA-399</t>
+  </si>
+  <si>
+    <t>OPQA-527</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -746,18 +775,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -788,7 +818,7 @@
         <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -805,7 +835,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -822,7 +852,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -839,7 +869,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -856,7 +886,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -873,7 +903,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -890,7 +920,7 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -907,7 +937,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -924,7 +954,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -941,7 +971,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -958,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -975,7 +1005,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -992,7 +1022,7 @@
         <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -1009,7 +1039,7 @@
         <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1026,7 +1056,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1043,7 +1073,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -1060,7 +1090,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -1077,7 +1107,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -1094,7 +1124,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -1111,14 +1141,66 @@
         <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1132,8 +1214,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1222,10 +1304,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1269,8 +1351,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1349,8 +1431,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1429,9 +1511,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1549,9 +1631,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1669,9 +1751,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1789,10 +1871,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1928,9 +2010,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1996,11 +2078,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="115">
   <si>
     <t>TCID</t>
   </si>
@@ -348,12 +348,38 @@
   <si>
     <t>OPQA-551</t>
   </si>
+  <si>
+    <t>TestCase_A21</t>
+  </si>
+  <si>
+    <t>Verify View additional email preferences link is working</t>
+  </si>
+  <si>
+    <t>TestCase_A22</t>
+  </si>
+  <si>
+    <t>TestCase_A23</t>
+  </si>
+  <si>
+    <t>Verify change password link in the account page is working correctly.</t>
+  </si>
+  <si>
+    <t>Verify that the  checkbox  is present and can be modified for "Receive email notifications for likes,comments and other activity" is working correctly.</t>
+  </si>
+  <si>
+    <t>OPQA-854,OPQA-853</t>
+  </si>
+  <si>
+    <t>OPQA-399</t>
+  </si>
+  <si>
+    <t>OPQA-527</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -746,18 +772,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1117,8 +1144,60 @@
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1132,8 +1211,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1222,10 +1301,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1269,8 +1348,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1349,8 +1428,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1429,9 +1508,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1549,9 +1628,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1669,9 +1748,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1789,10 +1868,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1928,9 +2007,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1996,11 +2075,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="115">
   <si>
     <t>TCID</t>
   </si>
@@ -348,12 +348,38 @@
   <si>
     <t>OPQA-551</t>
   </si>
+  <si>
+    <t>TestCase_A21</t>
+  </si>
+  <si>
+    <t>Verify View additional email preferences link is working</t>
+  </si>
+  <si>
+    <t>TestCase_A22</t>
+  </si>
+  <si>
+    <t>TestCase_A23</t>
+  </si>
+  <si>
+    <t>Verify change password link in the account page is working correctly.</t>
+  </si>
+  <si>
+    <t>Verify that the  checkbox  is present and can be modified for "Receive email notifications for likes,comments and other activity" is working correctly.</t>
+  </si>
+  <si>
+    <t>OPQA-854,OPQA-853</t>
+  </si>
+  <si>
+    <t>OPQA-399</t>
+  </si>
+  <si>
+    <t>OPQA-527</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -746,18 +772,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1117,8 +1144,60 @@
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1132,8 +1211,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1222,10 +1301,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1269,8 +1348,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1349,8 +1428,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1429,9 +1508,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1549,9 +1628,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1669,9 +1748,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1789,10 +1868,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1928,9 +2007,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1996,11 +2075,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="115">
   <si>
     <t>TCID</t>
   </si>
@@ -348,12 +348,38 @@
   <si>
     <t>OPQA-551</t>
   </si>
+  <si>
+    <t>TestCase_A21</t>
+  </si>
+  <si>
+    <t>Verify View additional email preferences link is working</t>
+  </si>
+  <si>
+    <t>TestCase_A22</t>
+  </si>
+  <si>
+    <t>TestCase_A23</t>
+  </si>
+  <si>
+    <t>Verify change password link in the account page is working correctly.</t>
+  </si>
+  <si>
+    <t>Verify that the  checkbox  is present and can be modified for "Receive email notifications for likes,comments and other activity" is working correctly.</t>
+  </si>
+  <si>
+    <t>OPQA-854,OPQA-853</t>
+  </si>
+  <si>
+    <t>OPQA-399</t>
+  </si>
+  <si>
+    <t>OPQA-527</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -746,18 +772,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1046,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1117,8 +1144,60 @@
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1132,8 +1211,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1222,10 +1301,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1269,8 +1348,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1349,8 +1428,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1429,9 +1508,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1549,9 +1628,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1669,9 +1748,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1789,10 +1868,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1928,9 +2007,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1996,11 +2075,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -775,7 +775,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="115">
   <si>
     <t>TCID</t>
   </si>
@@ -380,6 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -780,11 +781,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1022,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1073,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1211,8 +1212,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1301,10 +1302,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1348,8 +1349,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1428,8 +1429,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1508,9 +1509,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1628,9 +1629,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1748,9 +1749,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1868,10 +1869,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2007,9 +2008,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2075,11 +2076,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="121">
   <si>
     <t>TCID</t>
   </si>
@@ -375,12 +375,29 @@
   <si>
     <t>OPQA-527</t>
   </si>
+  <si>
+    <t>TestCase_A24</t>
+  </si>
+  <si>
+    <t>Verify that TR account gets locked after 5 consecutive unsuccessful login attempts</t>
+  </si>
+  <si>
+    <t>OPQA-525</t>
+  </si>
+  <si>
+    <t>TestCase_A25</t>
+  </si>
+  <si>
+    <t>OPQA-529</t>
+  </si>
+  <si>
+    <t>Verify that Help link is working properly</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -773,19 +790,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1194,6 +1211,40 @@
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1212,8 +1263,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1302,10 +1353,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1349,8 +1400,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1429,8 +1480,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1509,9 +1560,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1629,9 +1680,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1749,9 +1800,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1869,10 +1920,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2008,9 +2059,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2076,11 +2127,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1244,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -793,7 +793,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1415,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1495,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1555,7 +1555,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1576,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1675,7 +1675,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1696,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1943,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2075,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2151,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="122">
   <si>
     <t>TCID</t>
   </si>
@@ -393,11 +393,15 @@
   <si>
     <t>Verify that Help link is working properly</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -793,16 +797,16 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D3" sqref="D3:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -836,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -850,7 +854,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -867,7 +871,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -884,7 +888,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -901,7 +905,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -918,7 +922,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -935,7 +939,7 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -952,7 +956,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -969,7 +973,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -986,7 +990,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -1003,7 +1007,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -1020,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1037,7 +1041,7 @@
         <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -1054,7 +1058,7 @@
         <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1071,7 +1075,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1088,7 +1092,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -1105,7 +1109,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -1122,7 +1126,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -1139,7 +1143,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -1156,7 +1160,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -1173,7 +1177,7 @@
         <v>107</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
@@ -1190,7 +1194,7 @@
         <v>111</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>11</v>
@@ -1207,7 +1211,7 @@
         <v>110</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -1224,7 +1228,7 @@
         <v>116</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>11</v>
@@ -1241,7 +1245,7 @@
         <v>120</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>11</v>
@@ -1263,8 +1267,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1275,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1353,10 +1357,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1400,8 +1404,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1415,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1480,8 +1484,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1495,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1560,9 +1564,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1576,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1680,9 +1684,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1696,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1800,9 +1804,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1816,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1920,10 +1924,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1943,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2059,9 +2063,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2075,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2127,11 +2131,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2151,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="122">
   <si>
     <t>TCID</t>
   </si>
@@ -393,11 +393,15 @@
   <si>
     <t>Verify that Help link is working properly</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -793,16 +797,16 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D3" sqref="D3:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -836,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -850,7 +854,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -867,7 +871,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -884,7 +888,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -901,7 +905,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -918,7 +922,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -935,7 +939,7 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -952,7 +956,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -969,7 +973,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -986,7 +990,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -1003,7 +1007,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -1020,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1037,7 +1041,7 @@
         <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -1054,7 +1058,7 @@
         <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1071,7 +1075,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1088,7 +1092,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -1105,7 +1109,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -1122,7 +1126,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -1139,7 +1143,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -1156,7 +1160,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -1173,7 +1177,7 @@
         <v>107</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
@@ -1190,7 +1194,7 @@
         <v>111</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>11</v>
@@ -1207,7 +1211,7 @@
         <v>110</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -1224,7 +1228,7 @@
         <v>116</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>11</v>
@@ -1241,7 +1245,7 @@
         <v>120</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>11</v>
@@ -1258,13 +1262,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1353,10 +1357,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1400,8 +1404,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1480,8 +1484,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1555,14 +1559,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1675,14 +1679,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1800,9 +1804,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1915,15 +1919,15 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2059,9 +2063,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2127,11 +2131,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="122">
   <si>
     <t>TCID</t>
   </si>
@@ -797,7 +797,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D26"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -837,10 +837,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -905,10 +905,10 @@
         <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1268,7 +1268,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1405,7 +1405,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1485,7 +1485,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1566,7 +1566,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1686,7 +1686,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1806,7 +1806,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1927,7 +1927,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2065,7 +2065,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2135,7 +2135,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="122">
   <si>
     <t>TCID</t>
   </si>
@@ -401,7 +401,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -797,16 +796,16 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -905,7 +904,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -939,7 +938,7 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -1267,8 +1266,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1357,10 +1356,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1404,8 +1403,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1484,8 +1483,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1564,9 +1563,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1684,9 +1683,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1804,9 +1803,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1924,10 +1923,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2063,9 +2062,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2131,11 +2130,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="121">
   <si>
     <t>TCID</t>
   </si>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t>Verify that Help link is working properly</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -796,7 +793,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,7 +833,7 @@
         <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -853,7 +850,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -870,7 +867,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -887,7 +884,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -904,10 +901,10 @@
         <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -921,7 +918,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -955,7 +952,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -972,7 +969,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -989,7 +986,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -1006,7 +1003,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -1023,7 +1020,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1040,7 +1037,7 @@
         <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -1057,7 +1054,7 @@
         <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1074,7 +1071,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1091,7 +1088,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -1108,7 +1105,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -1125,7 +1122,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -1142,7 +1139,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -1159,7 +1156,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -1176,7 +1173,7 @@
         <v>107</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
@@ -1193,7 +1190,7 @@
         <v>111</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>11</v>
@@ -1210,7 +1207,7 @@
         <v>110</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -1227,7 +1224,7 @@
         <v>116</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>11</v>
@@ -1244,10 +1241,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1475,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="121">
   <si>
     <t>TCID</t>
   </si>
@@ -393,15 +393,11 @@
   <si>
     <t>Verify that Help link is working properly</t>
   </si>
-  <si>
-    <t>N</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -797,16 +793,16 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D26"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -840,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -854,7 +850,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -871,7 +867,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -888,7 +884,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -905,7 +901,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -922,7 +918,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -939,7 +935,7 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -956,7 +952,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -973,7 +969,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -990,7 +986,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -1007,7 +1003,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -1024,7 +1020,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1041,7 +1037,7 @@
         <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -1058,7 +1054,7 @@
         <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1075,7 +1071,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1092,7 +1088,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -1109,7 +1105,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -1126,7 +1122,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -1143,7 +1139,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -1160,7 +1156,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -1177,7 +1173,7 @@
         <v>107</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
@@ -1194,7 +1190,7 @@
         <v>111</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>11</v>
@@ -1211,7 +1207,7 @@
         <v>110</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -1228,7 +1224,7 @@
         <v>116</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>11</v>
@@ -1245,10 +1241,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1267,8 +1263,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1357,10 +1353,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1404,8 +1400,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1479,13 +1475,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1564,9 +1560,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1684,9 +1680,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1804,9 +1800,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1924,10 +1920,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2063,9 +2059,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2131,11 +2127,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -793,7 +793,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1244,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1555,7 +1555,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1675,7 +1675,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="121">
   <si>
     <t>TCID</t>
   </si>
@@ -398,6 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -798,11 +799,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -836,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -853,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -870,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1263,8 +1264,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1353,10 +1354,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1400,8 +1401,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1480,8 +1481,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1560,9 +1561,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1680,9 +1681,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1800,9 +1801,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1920,10 +1921,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2059,9 +2060,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2127,11 +2128,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -793,7 +793,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="121">
   <si>
     <t>TCID</t>
   </si>
@@ -398,7 +398,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -793,17 +792,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="130.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="130" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1264,8 +1263,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1354,10 +1353,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1401,8 +1400,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1481,8 +1480,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1561,9 +1560,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1681,9 +1680,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1801,9 +1800,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1921,10 +1920,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2060,9 +2059,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2128,11 +2127,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -422,7 +422,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +438,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +479,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -493,6 +499,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1033,7 +1043,7 @@
       <c r="B14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1118,7 +1128,7 @@
       <c r="B19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1152,7 +1162,7 @@
       <c r="B21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1220,7 +1230,7 @@
       <c r="B25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1395,7 +1405,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1419,7 +1429,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1433,7 +1443,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1447,7 +1457,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1461,12 +1471,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="amneetsingh72@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId2" display="amneetsinghasr@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId3" display="amneetsingh100@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1475,7 +1481,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1499,7 +1505,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1513,7 +1519,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1527,7 +1533,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1541,11 +1547,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="amneetsingh72@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId2" display="amneetsinghasr@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId3" display="amneetsingh100@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1915,7 +1916,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCase_A5" sheetId="5" r:id="rId2"/>
-    <sheet name="TestCase_A6" sheetId="6" r:id="rId3"/>
-    <sheet name="TestCase_A7" sheetId="7" r:id="rId4"/>
-    <sheet name="TestCase_A8" sheetId="8" r:id="rId5"/>
-    <sheet name="TestCase_A9" sheetId="9" r:id="rId6"/>
-    <sheet name="TestCase_A10" sheetId="10" r:id="rId7"/>
-    <sheet name="TestCase_A11" sheetId="11" r:id="rId8"/>
-    <sheet name="TestCase_A12" sheetId="12" r:id="rId9"/>
-    <sheet name="TestCase_A19" sheetId="13" r:id="rId10"/>
+    <sheet name="IAM005" sheetId="5" r:id="rId2"/>
+    <sheet name="IAM006" sheetId="6" r:id="rId3"/>
+    <sheet name="IAM007" sheetId="7" r:id="rId4"/>
+    <sheet name="IAM008" sheetId="8" r:id="rId5"/>
+    <sheet name="IAM009" sheetId="9" r:id="rId6"/>
+    <sheet name="IAM010" sheetId="10" r:id="rId7"/>
+    <sheet name="IAM011" sheetId="11" r:id="rId8"/>
+    <sheet name="IAM012" sheetId="12" r:id="rId9"/>
+    <sheet name="IAM019" sheetId="13" r:id="rId10"/>
     <sheet name="Test Case Steps" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="120">
   <si>
     <t>TCID</t>
   </si>
@@ -35,36 +35,18 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>TestCase_A1</t>
-  </si>
-  <si>
-    <t>TestCase_A2</t>
-  </si>
-  <si>
     <t>TC SCENARIO</t>
   </si>
   <si>
     <t>TC STEPS</t>
   </si>
   <si>
-    <t>TestCase_A3</t>
-  </si>
-  <si>
-    <t>TestCase_A4</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t>TestCase_A5</t>
-  </si>
-  <si>
     <t>VALIDITY</t>
   </si>
   <si>
@@ -80,12 +62,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>TestCase_A6</t>
-  </si>
-  <si>
-    <t>TestCase_A7</t>
-  </si>
-  <si>
     <t>PASSWORD</t>
   </si>
   <si>
@@ -104,27 +80,18 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>TestCase_A8</t>
-  </si>
-  <si>
     <t>amneetsingh100@gmail.com</t>
   </si>
   <si>
     <t>amneetsingh10@gmail.com</t>
   </si>
   <si>
-    <t>TestCase_A9</t>
-  </si>
-  <si>
     <t>amneet.singh@thomsonreuters.com</t>
   </si>
   <si>
     <t>amneetsingh@thomsonreuters.com</t>
   </si>
   <si>
-    <t>TestCase_A10</t>
-  </si>
-  <si>
     <t>SUFFIX</t>
   </si>
   <si>
@@ -140,12 +107,6 @@
     <t>Please enter a valid Email Address.</t>
   </si>
   <si>
-    <t>TestCase_A11</t>
-  </si>
-  <si>
-    <t>TestCase_A12</t>
-  </si>
-  <si>
     <t>STRENGTH</t>
   </si>
   <si>
@@ -179,31 +140,10 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>TestCase_A13</t>
-  </si>
-  <si>
-    <t>TestCase_A14</t>
-  </si>
-  <si>
-    <t>TestCase_A15</t>
-  </si>
-  <si>
-    <t>TestCase_A16</t>
-  </si>
-  <si>
-    <t>TestCase_A17</t>
-  </si>
-  <si>
     <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
   </si>
   <si>
-    <t>TestCase_A18</t>
-  </si>
-  <si>
     <t>Verify that Linkedin CANCEL button is working correctly</t>
-  </si>
-  <si>
-    <t>TestCase_A19</t>
   </si>
   <si>
     <t>Verify that following special characters are not allowed in EMAIL ADDRESS field in new TR user registration page:
@@ -232,9 +172,6 @@
     <t>!</t>
   </si>
   <si>
-    <t>TestCase_A20</t>
-  </si>
-  <si>
     <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
   </si>
   <si>
@@ -349,18 +286,9 @@
     <t>OPQA-551</t>
   </si>
   <si>
-    <t>TestCase_A21</t>
-  </si>
-  <si>
     <t>Verify View additional email preferences link is working</t>
   </si>
   <si>
-    <t>TestCase_A22</t>
-  </si>
-  <si>
-    <t>TestCase_A23</t>
-  </si>
-  <si>
     <t>Verify change password link in the account page is working correctly.</t>
   </si>
   <si>
@@ -376,22 +304,91 @@
     <t>OPQA-527</t>
   </si>
   <si>
-    <t>TestCase_A24</t>
-  </si>
-  <si>
     <t>Verify that TR account gets locked after 5 consecutive unsuccessful login attempts</t>
   </si>
   <si>
     <t>OPQA-525</t>
   </si>
   <si>
-    <t>TestCase_A25</t>
-  </si>
-  <si>
     <t>OPQA-529</t>
   </si>
   <si>
     <t>Verify that Help link is working properly</t>
+  </si>
+  <si>
+    <t>IAM001</t>
+  </si>
+  <si>
+    <t>IAM002</t>
+  </si>
+  <si>
+    <t>IAM003</t>
+  </si>
+  <si>
+    <t>IAM004</t>
+  </si>
+  <si>
+    <t>IAM005</t>
+  </si>
+  <si>
+    <t>IAM006</t>
+  </si>
+  <si>
+    <t>IAM007</t>
+  </si>
+  <si>
+    <t>IAM008</t>
+  </si>
+  <si>
+    <t>IAM009</t>
+  </si>
+  <si>
+    <t>IAM010</t>
+  </si>
+  <si>
+    <t>IAM011</t>
+  </si>
+  <si>
+    <t>IAM012</t>
+  </si>
+  <si>
+    <t>IAM019</t>
+  </si>
+  <si>
+    <t>IAM013</t>
+  </si>
+  <si>
+    <t>IAM014</t>
+  </si>
+  <si>
+    <t>IAM015</t>
+  </si>
+  <si>
+    <t>IAM016</t>
+  </si>
+  <si>
+    <t>IAM017</t>
+  </si>
+  <si>
+    <t>IAM018</t>
+  </si>
+  <si>
+    <t>IAM020</t>
+  </si>
+  <si>
+    <t>IAM021</t>
+  </si>
+  <si>
+    <t>IAM022</t>
+  </si>
+  <si>
+    <t>IAM023</t>
+  </si>
+  <si>
+    <t>IAM024</t>
+  </si>
+  <si>
+    <t>IAM025</t>
   </si>
 </sst>
 </file>
@@ -803,7 +800,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -820,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -829,432 +826,432 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="90">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>106</v>
+      <c r="A22" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30">
       <c r="A23" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1279,68 +1276,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1374,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">
@@ -1405,7 +1402,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1416,16 +1413,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1433,13 +1430,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1447,13 +1444,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1461,13 +1458,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +1478,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1492,16 +1489,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1509,13 +1506,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1523,13 +1520,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1537,13 +1534,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1568,92 +1565,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1688,92 +1685,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1808,92 +1805,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1929,22 +1926,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1952,17 +1949,17 @@
         <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1970,17 +1967,17 @@
         <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1988,19 +1985,19 @@
         <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2009,16 +2006,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2026,17 +2023,17 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2067,44 +2064,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2137,122 +2134,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/A suite.xlsx
+++ b/src/test/resources/xls/A suite.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCase_A5" sheetId="5" r:id="rId2"/>
-    <sheet name="TestCase_A6" sheetId="6" r:id="rId3"/>
-    <sheet name="TestCase_A7" sheetId="7" r:id="rId4"/>
-    <sheet name="TestCase_A8" sheetId="8" r:id="rId5"/>
-    <sheet name="TestCase_A9" sheetId="9" r:id="rId6"/>
-    <sheet name="TestCase_A10" sheetId="10" r:id="rId7"/>
-    <sheet name="TestCase_A11" sheetId="11" r:id="rId8"/>
-    <sheet name="TestCase_A12" sheetId="12" r:id="rId9"/>
-    <sheet name="TestCase_A19" sheetId="13" r:id="rId10"/>
+    <sheet name="IAM005" sheetId="5" r:id="rId2"/>
+    <sheet name="IAM006" sheetId="6" r:id="rId3"/>
+    <sheet name="IAM007" sheetId="7" r:id="rId4"/>
+    <sheet name="IAM008" sheetId="8" r:id="rId5"/>
+    <sheet name="IAM009" sheetId="9" r:id="rId6"/>
+    <sheet name="IAM010" sheetId="10" r:id="rId7"/>
+    <sheet name="IAM011" sheetId="11" r:id="rId8"/>
+    <sheet name="IAM012" sheetId="12" r:id="rId9"/>
+    <sheet name="IAM019" sheetId="13" r:id="rId10"/>
     <sheet name="Test Case Steps" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="120">
   <si>
     <t>TCID</t>
   </si>
@@ -35,36 +35,18 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>TestCase_A1</t>
-  </si>
-  <si>
-    <t>TestCase_A2</t>
-  </si>
-  <si>
     <t>TC SCENARIO</t>
   </si>
   <si>
     <t>TC STEPS</t>
   </si>
   <si>
-    <t>TestCase_A3</t>
-  </si>
-  <si>
-    <t>TestCase_A4</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t>TestCase_A5</t>
-  </si>
-  <si>
     <t>VALIDITY</t>
   </si>
   <si>
@@ -80,12 +62,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>TestCase_A6</t>
-  </si>
-  <si>
-    <t>TestCase_A7</t>
-  </si>
-  <si>
     <t>PASSWORD</t>
   </si>
   <si>
@@ -104,27 +80,18 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>TestCase_A8</t>
-  </si>
-  <si>
     <t>amneetsingh100@gmail.com</t>
   </si>
   <si>
     <t>amneetsingh10@gmail.com</t>
   </si>
   <si>
-    <t>TestCase_A9</t>
-  </si>
-  <si>
     <t>amneet.singh@thomsonreuters.com</t>
   </si>
   <si>
     <t>amneetsingh@thomsonreuters.com</t>
   </si>
   <si>
-    <t>TestCase_A10</t>
-  </si>
-  <si>
     <t>SUFFIX</t>
   </si>
   <si>
@@ -140,12 +107,6 @@
     <t>Please enter a valid Email Address.</t>
   </si>
   <si>
-    <t>TestCase_A11</t>
-  </si>
-  <si>
-    <t>TestCase_A12</t>
-  </si>
-  <si>
     <t>STRENGTH</t>
   </si>
   <si>
@@ -179,31 +140,10 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>TestCase_A13</t>
-  </si>
-  <si>
-    <t>TestCase_A14</t>
-  </si>
-  <si>
-    <t>TestCase_A15</t>
-  </si>
-  <si>
-    <t>TestCase_A16</t>
-  </si>
-  <si>
-    <t>TestCase_A17</t>
-  </si>
-  <si>
     <t>Verify that existing TR user is able to login successfully and that case-sensitivity of email id doesn't have any effect on login process</t>
   </si>
   <si>
-    <t>TestCase_A18</t>
-  </si>
-  <si>
     <t>Verify that Linkedin CANCEL button is working correctly</t>
-  </si>
-  <si>
-    <t>TestCase_A19</t>
   </si>
   <si>
     <t>Verify that following special characters are not allowed in EMAIL ADDRESS field in new TR user registration page:
@@ -232,9 +172,6 @@
     <t>!</t>
   </si>
   <si>
-    <t>TestCase_A20</t>
-  </si>
-  <si>
     <t>Verify that CREATE A NEW PROJECT NEON ACCOUNT button is working correctly</t>
   </si>
   <si>
@@ -349,18 +286,9 @@
     <t>OPQA-551</t>
   </si>
   <si>
-    <t>TestCase_A21</t>
-  </si>
-  <si>
     <t>Verify View additional email preferences link is working</t>
   </si>
   <si>
-    <t>TestCase_A22</t>
-  </si>
-  <si>
-    <t>TestCase_A23</t>
-  </si>
-  <si>
     <t>Verify change password link in the account page is working correctly.</t>
   </si>
   <si>
@@ -376,22 +304,91 @@
     <t>OPQA-527</t>
   </si>
   <si>
-    <t>TestCase_A24</t>
-  </si>
-  <si>
     <t>Verify that TR account gets locked after 5 consecutive unsuccessful login attempts</t>
   </si>
   <si>
     <t>OPQA-525</t>
   </si>
   <si>
-    <t>TestCase_A25</t>
-  </si>
-  <si>
     <t>OPQA-529</t>
   </si>
   <si>
     <t>Verify that Help link is working properly</t>
+  </si>
+  <si>
+    <t>IAM001</t>
+  </si>
+  <si>
+    <t>IAM002</t>
+  </si>
+  <si>
+    <t>IAM003</t>
+  </si>
+  <si>
+    <t>IAM004</t>
+  </si>
+  <si>
+    <t>IAM005</t>
+  </si>
+  <si>
+    <t>IAM006</t>
+  </si>
+  <si>
+    <t>IAM007</t>
+  </si>
+  <si>
+    <t>IAM008</t>
+  </si>
+  <si>
+    <t>IAM009</t>
+  </si>
+  <si>
+    <t>IAM010</t>
+  </si>
+  <si>
+    <t>IAM011</t>
+  </si>
+  <si>
+    <t>IAM012</t>
+  </si>
+  <si>
+    <t>IAM019</t>
+  </si>
+  <si>
+    <t>IAM013</t>
+  </si>
+  <si>
+    <t>IAM014</t>
+  </si>
+  <si>
+    <t>IAM015</t>
+  </si>
+  <si>
+    <t>IAM016</t>
+  </si>
+  <si>
+    <t>IAM017</t>
+  </si>
+  <si>
+    <t>IAM018</t>
+  </si>
+  <si>
+    <t>IAM020</t>
+  </si>
+  <si>
+    <t>IAM021</t>
+  </si>
+  <si>
+    <t>IAM022</t>
+  </si>
+  <si>
+    <t>IAM023</t>
+  </si>
+  <si>
+    <t>IAM024</t>
+  </si>
+  <si>
+    <t>IAM025</t>
   </si>
 </sst>
 </file>
@@ -820,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -829,432 +826,432 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="90">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>106</v>
+      <c r="A22" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30">
       <c r="A23" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1279,68 +1276,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1374,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">
@@ -1405,7 +1402,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1416,16 +1413,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1433,13 +1430,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1447,13 +1444,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1461,13 +1458,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +1478,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1492,16 +1489,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1509,13 +1506,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1523,13 +1520,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1537,13 +1534,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1568,92 +1565,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1688,92 +1685,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1808,92 +1805,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1929,22 +1926,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1952,17 +1949,17 @@
         <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1970,17 +1967,17 @@
         <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1988,19 +1985,19 @@
         <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2009,16 +2006,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2026,17 +2023,17 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2067,44 +2064,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2120,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2137,122 +2134,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
